--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_33\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1A500-0AC0-49BF-9ACE-A98989075986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2949AC-25FF-486A-A683-FE1E5F2150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57135" yWindow="1650" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50850" yWindow="1365" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="276">
   <si>
     <t>Lactobacillus</t>
   </si>
@@ -606,12 +606,6 @@
   </si>
   <si>
     <t>Atopic Dermatitis</t>
-  </si>
-  <si>
-    <t>Peptoclostridium</t>
-  </si>
-  <si>
-    <t>g__Peptoclostridium</t>
   </si>
   <si>
     <t>Food Allergy</t>
@@ -832,6 +826,84 @@
   </si>
   <si>
     <t>s__Roseburia_intestinalis</t>
+  </si>
+  <si>
+    <t>Bacteroides ovatus</t>
+  </si>
+  <si>
+    <t>s__Bacteroides_ovatus</t>
+  </si>
+  <si>
+    <t>s__Bacteroides uniformis</t>
+  </si>
+  <si>
+    <t>Clostridium</t>
+  </si>
+  <si>
+    <t>g__Clostridium</t>
+  </si>
+  <si>
+    <t>s__Coprococcus_sp000154245</t>
+  </si>
+  <si>
+    <t>s__Ruminiclostridium_sp000244875</t>
+  </si>
+  <si>
+    <t>s__Eubacterium_sp000270305</t>
+  </si>
+  <si>
+    <t>s__Hungatella_sp000526575</t>
+  </si>
+  <si>
+    <t>s__Anaerocolumna_sp000702945</t>
+  </si>
+  <si>
+    <t>s__Khelaifiella_sp000744935</t>
+  </si>
+  <si>
+    <t>s__CAG-306_sp000980375</t>
+  </si>
+  <si>
+    <t>s__Coprococcus_sp900066115</t>
+  </si>
+  <si>
+    <t>s__TF01-11_sp001414325</t>
+  </si>
+  <si>
+    <t>s__MS4_sp000752215</t>
+  </si>
+  <si>
+    <t>s__CAG-217_sp000436335</t>
+  </si>
+  <si>
+    <t>s__Lachnoclostridium_sp900078195</t>
+  </si>
+  <si>
+    <t>s__Dorea_sp900086625</t>
+  </si>
+  <si>
+    <t>s__Faecalicatena_sp900120155</t>
+  </si>
+  <si>
+    <t>s__Flavonifractor_sp900199495</t>
+  </si>
+  <si>
+    <t>s__CAG-81_sp900066785</t>
+  </si>
+  <si>
+    <t>s__Absiella_innocuum</t>
+  </si>
+  <si>
+    <t>s__Bittarella_massiliensis</t>
+  </si>
+  <si>
+    <t>s__Hungatella_guttoideum</t>
+  </si>
+  <si>
+    <t>s__Lawsonibacter_asaccharolyticus</t>
+  </si>
+  <si>
+    <t>s__GCA-900066995_sp900291955</t>
   </si>
 </sst>
 </file>
@@ -1540,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
-  <dimension ref="A1:E1047"/>
+  <dimension ref="A1:E1070"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2191,7 +2263,7 @@
         <v>72</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>84</v>
@@ -2338,13 +2410,13 @@
     </row>
     <row r="53" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="5" t="s">
@@ -2788,13 +2860,13 @@
     </row>
     <row r="83" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="7" t="s">
@@ -2803,7 +2875,7 @@
     </row>
     <row r="84" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>56</v>
@@ -2818,7 +2890,7 @@
     </row>
     <row r="85" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>56</v>
@@ -2833,7 +2905,7 @@
     </row>
     <row r="86" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>43</v>
@@ -2848,7 +2920,7 @@
     </row>
     <row r="87" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>36</v>
@@ -2863,7 +2935,7 @@
     </row>
     <row r="88" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>118</v>
@@ -2878,13 +2950,13 @@
     </row>
     <row r="89" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="12" t="s">
@@ -2893,13 +2965,13 @@
     </row>
     <row r="90" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="5" t="s">
@@ -3123,7 +3195,7 @@
         <v>129</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>133</v>
@@ -3138,7 +3210,7 @@
         <v>129</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>134</v>
@@ -3941,7 +4013,7 @@
         <v>175</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>187</v>
@@ -3956,7 +4028,7 @@
         <v>175</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>84</v>
@@ -3983,7 +4055,7 @@
     </row>
     <row r="162" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B162" s="38" t="s">
         <v>33</v>
@@ -4000,7 +4072,7 @@
     </row>
     <row r="163" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B163" s="38" t="s">
         <v>2</v>
@@ -4015,7 +4087,7 @@
     </row>
     <row r="164" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B164" s="38" t="s">
         <v>2</v>
@@ -4030,7 +4102,7 @@
     </row>
     <row r="165" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B165" s="38" t="s">
         <v>2</v>
@@ -4045,7 +4117,7 @@
     </row>
     <row r="166" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B166" s="38" t="s">
         <v>135</v>
@@ -4060,7 +4132,7 @@
     </row>
     <row r="167" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B167" s="39" t="s">
         <v>128</v>
@@ -4088,94 +4160,94 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C173" s="46" t="s">
-        <v>127</v>
+        <v>73</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4183,29 +4255,29 @@
         <v>189</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
@@ -4213,25 +4285,25 @@
         <v>189</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="12" t="s">
@@ -4239,179 +4311,181 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B179" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="5" t="s">
+      <c r="B179" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="4"/>
+    <row r="180" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E180" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>8</v>
+      <c r="A181" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>194</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C184" s="47" t="s">
-        <v>196</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C185" s="47" t="s">
-        <v>197</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B186" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>199</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>201</v>
+      <c r="A187" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B188" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C188" s="47" t="s">
-        <v>203</v>
+    <row r="188" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C189" s="47" t="s">
-        <v>204</v>
+    <row r="189" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>206</v>
+    <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="12" t="s">
@@ -4419,660 +4493,844 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>208</v>
+      <c r="A191" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C192" s="48" t="s">
-        <v>58</v>
+    <row r="192" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="22" t="s">
+    <row r="193" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C196" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D202" s="10"/>
+      <c r="E202" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="D206" s="4"/>
+      <c r="E206" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B207" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C207" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B208" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C208" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C209" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B211" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C211" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B212" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D216" s="10"/>
+      <c r="E216" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C193" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B194" s="17" t="s">
+      <c r="B217" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C217" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D194" s="17"/>
-      <c r="E194" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B195" s="17" t="s">
+      <c r="D217" s="17"/>
+      <c r="E217" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C218" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="D195" s="17"/>
-      <c r="E195" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D196" s="17"/>
-      <c r="E196" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B197" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D197" s="24"/>
-      <c r="E197" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B198" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D198" s="32"/>
-      <c r="E198" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B199" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C199" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D199" s="32"/>
-      <c r="E199" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B200" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D200" s="32"/>
-      <c r="E200" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B201" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C201" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D201" s="32"/>
-      <c r="E201" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B202" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C202" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D202" s="32"/>
-      <c r="E202" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B203" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="32"/>
-      <c r="E203" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B204" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C204" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D204" s="32"/>
-      <c r="E204" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B205" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C205" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D205" s="32"/>
-      <c r="E205" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B206" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D206" s="36"/>
-      <c r="E206" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B207" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C207" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D207" s="36"/>
-      <c r="E207" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B208" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C208" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D208" s="32"/>
-      <c r="E208" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B209" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C209" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D209" s="32"/>
-      <c r="E209" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B210" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="36"/>
-      <c r="E210" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B211" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D211" s="32"/>
-      <c r="E211" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C212" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D212" s="32"/>
-      <c r="E212" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B213" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D213" s="32"/>
-      <c r="E213" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C214" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D214" s="32"/>
-      <c r="E214" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B215" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C215" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D215" s="32"/>
-      <c r="E215" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B216" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C216" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D216" s="32"/>
-      <c r="E216" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C217" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D217" s="36"/>
-      <c r="E217" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B218" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D218" s="17"/>
       <c r="E218" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D220" s="24"/>
+      <c r="E220" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B221" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C221" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="32"/>
+      <c r="E221" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D222" s="32"/>
+      <c r="E222" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D223" s="32"/>
+      <c r="E223" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D224" s="32"/>
+      <c r="E224" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D225" s="32"/>
+      <c r="E225" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B226" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="32"/>
+      <c r="E226" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+    <row r="227" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" s="32"/>
+      <c r="E227" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B228" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D228" s="32"/>
+      <c r="E228" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C229" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D229" s="36"/>
+      <c r="E229" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="36"/>
+      <c r="E230" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B231" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" s="32"/>
+      <c r="E231" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B232" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" s="32"/>
+      <c r="E232" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="36"/>
+      <c r="E233" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B234" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D234" s="32"/>
+      <c r="E234" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B235" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D235" s="32"/>
+      <c r="E235" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B236" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D236" s="32"/>
+      <c r="E236" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B237" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C237" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D237" s="32"/>
+      <c r="E237" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B238" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C238" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D238" s="32"/>
+      <c r="E238" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C239" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D239" s="32"/>
+      <c r="E239" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C240" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D240" s="36"/>
+      <c r="E240" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B220" s="17" t="s">
+      <c r="D241" s="17"/>
+      <c r="E241" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242" s="17"/>
+      <c r="E242" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D243" s="17"/>
+      <c r="E243" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D244" s="17"/>
+      <c r="E244" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C245" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D220" s="17"/>
-      <c r="E220" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B221" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D221" s="17"/>
-      <c r="E221" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B222" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D222" s="17"/>
-      <c r="E222" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B223" s="24" t="s">
+      <c r="D245" s="17"/>
+      <c r="E245" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C223" s="24" t="s">
+      <c r="C246" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D223" s="24"/>
-      <c r="E223" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="49"/>
-      <c r="B224" s="50"/>
-      <c r="C224" s="50"/>
-      <c r="D224" s="50"/>
-      <c r="E224" s="50"/>
-    </row>
-    <row r="225" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="49"/>
-      <c r="B225" s="50"/>
-      <c r="C225" s="50"/>
-      <c r="D225" s="50"/>
-      <c r="E225" s="50"/>
-    </row>
-    <row r="226" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="49"/>
-      <c r="B226" s="50"/>
-      <c r="C226" s="50"/>
-      <c r="D226" s="50"/>
-      <c r="E226" s="50"/>
-    </row>
-    <row r="227" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="49"/>
-      <c r="B227" s="50"/>
-      <c r="C227" s="50"/>
-      <c r="D227" s="50"/>
-      <c r="E227" s="50"/>
-    </row>
-    <row r="228" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="49"/>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
-    </row>
-    <row r="229" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="49"/>
-      <c r="B229" s="50"/>
-      <c r="C229" s="50"/>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-    </row>
-    <row r="230" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="49"/>
-      <c r="B230" s="50"/>
-      <c r="C230" s="50"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="50"/>
-    </row>
-    <row r="231" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="49"/>
-      <c r="B231" s="50"/>
-      <c r="C231" s="50"/>
-      <c r="D231" s="50"/>
-      <c r="E231" s="50"/>
-    </row>
-    <row r="232" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="49"/>
-      <c r="B232" s="50"/>
-      <c r="C232" s="50"/>
-      <c r="D232" s="50"/>
-      <c r="E232" s="50"/>
-    </row>
-    <row r="233" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="49"/>
-      <c r="B233" s="50"/>
-      <c r="C233" s="50"/>
-      <c r="D233" s="50"/>
-      <c r="E233" s="50"/>
-    </row>
-    <row r="234" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="49"/>
-      <c r="B234" s="50"/>
-      <c r="C234" s="50"/>
-      <c r="D234" s="50"/>
-      <c r="E234" s="50"/>
-    </row>
-    <row r="235" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="49"/>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
-      <c r="E235" s="50"/>
-    </row>
-    <row r="236" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="49"/>
-      <c r="B236" s="50"/>
-      <c r="C236" s="50"/>
-      <c r="D236" s="50"/>
-      <c r="E236" s="50"/>
-    </row>
-    <row r="237" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="49"/>
-      <c r="B237" s="50"/>
-      <c r="C237" s="50"/>
-      <c r="D237" s="50"/>
-      <c r="E237" s="50"/>
-    </row>
-    <row r="238" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="49"/>
-      <c r="B238" s="50"/>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
-      <c r="E238" s="50"/>
-    </row>
-    <row r="239" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="49"/>
-      <c r="B239" s="50"/>
-      <c r="C239" s="50"/>
-      <c r="D239" s="50"/>
-      <c r="E239" s="50"/>
-    </row>
-    <row r="240" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="49"/>
-      <c r="B240" s="50"/>
-      <c r="C240" s="50"/>
-      <c r="D240" s="50"/>
-      <c r="E240" s="50"/>
-    </row>
-    <row r="241" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="49"/>
-      <c r="B241" s="50"/>
-      <c r="C241" s="50"/>
-      <c r="D241" s="50"/>
-      <c r="E241" s="50"/>
-    </row>
-    <row r="242" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="49"/>
-      <c r="B242" s="50"/>
-      <c r="C242" s="50"/>
-      <c r="D242" s="50"/>
-      <c r="E242" s="50"/>
-    </row>
-    <row r="243" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="49"/>
-      <c r="B243" s="50"/>
-      <c r="C243" s="50"/>
-      <c r="D243" s="50"/>
-      <c r="E243" s="50"/>
-    </row>
-    <row r="244" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="49"/>
-      <c r="B244" s="50"/>
-      <c r="C244" s="50"/>
-      <c r="D244" s="50"/>
-      <c r="E244" s="50"/>
-    </row>
-    <row r="245" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="49"/>
-      <c r="B245" s="50"/>
-      <c r="C245" s="50"/>
-      <c r="D245" s="50"/>
-      <c r="E245" s="50"/>
-    </row>
-    <row r="246" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="49"/>
-      <c r="B246" s="50"/>
-      <c r="C246" s="50"/>
-      <c r="D246" s="50"/>
-      <c r="E246" s="50"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="25" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="247" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="49"/>
@@ -10681,6 +10939,167 @@
       <c r="D1047" s="50"/>
       <c r="E1047" s="50"/>
     </row>
+    <row r="1048" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="49"/>
+      <c r="B1048" s="50"/>
+      <c r="C1048" s="50"/>
+      <c r="D1048" s="50"/>
+      <c r="E1048" s="50"/>
+    </row>
+    <row r="1049" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="49"/>
+      <c r="B1049" s="50"/>
+      <c r="C1049" s="50"/>
+      <c r="D1049" s="50"/>
+      <c r="E1049" s="50"/>
+    </row>
+    <row r="1050" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="49"/>
+      <c r="B1050" s="50"/>
+      <c r="C1050" s="50"/>
+      <c r="D1050" s="50"/>
+      <c r="E1050" s="50"/>
+    </row>
+    <row r="1051" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="49"/>
+      <c r="B1051" s="50"/>
+      <c r="C1051" s="50"/>
+      <c r="D1051" s="50"/>
+      <c r="E1051" s="50"/>
+    </row>
+    <row r="1052" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="49"/>
+      <c r="B1052" s="50"/>
+      <c r="C1052" s="50"/>
+      <c r="D1052" s="50"/>
+      <c r="E1052" s="50"/>
+    </row>
+    <row r="1053" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="49"/>
+      <c r="B1053" s="50"/>
+      <c r="C1053" s="50"/>
+      <c r="D1053" s="50"/>
+      <c r="E1053" s="50"/>
+    </row>
+    <row r="1054" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="49"/>
+      <c r="B1054" s="50"/>
+      <c r="C1054" s="50"/>
+      <c r="D1054" s="50"/>
+      <c r="E1054" s="50"/>
+    </row>
+    <row r="1055" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="49"/>
+      <c r="B1055" s="50"/>
+      <c r="C1055" s="50"/>
+      <c r="D1055" s="50"/>
+      <c r="E1055" s="50"/>
+    </row>
+    <row r="1056" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="49"/>
+      <c r="B1056" s="50"/>
+      <c r="C1056" s="50"/>
+      <c r="D1056" s="50"/>
+      <c r="E1056" s="50"/>
+    </row>
+    <row r="1057" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="49"/>
+      <c r="B1057" s="50"/>
+      <c r="C1057" s="50"/>
+      <c r="D1057" s="50"/>
+      <c r="E1057" s="50"/>
+    </row>
+    <row r="1058" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="49"/>
+      <c r="B1058" s="50"/>
+      <c r="C1058" s="50"/>
+      <c r="D1058" s="50"/>
+      <c r="E1058" s="50"/>
+    </row>
+    <row r="1059" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="49"/>
+      <c r="B1059" s="50"/>
+      <c r="C1059" s="50"/>
+      <c r="D1059" s="50"/>
+      <c r="E1059" s="50"/>
+    </row>
+    <row r="1060" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="49"/>
+      <c r="B1060" s="50"/>
+      <c r="C1060" s="50"/>
+      <c r="D1060" s="50"/>
+      <c r="E1060" s="50"/>
+    </row>
+    <row r="1061" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="49"/>
+      <c r="B1061" s="50"/>
+      <c r="C1061" s="50"/>
+      <c r="D1061" s="50"/>
+      <c r="E1061" s="50"/>
+    </row>
+    <row r="1062" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="49"/>
+      <c r="B1062" s="50"/>
+      <c r="C1062" s="50"/>
+      <c r="D1062" s="50"/>
+      <c r="E1062" s="50"/>
+    </row>
+    <row r="1063" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="49"/>
+      <c r="B1063" s="50"/>
+      <c r="C1063" s="50"/>
+      <c r="D1063" s="50"/>
+      <c r="E1063" s="50"/>
+    </row>
+    <row r="1064" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="49"/>
+      <c r="B1064" s="50"/>
+      <c r="C1064" s="50"/>
+      <c r="D1064" s="50"/>
+      <c r="E1064" s="50"/>
+    </row>
+    <row r="1065" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="49"/>
+      <c r="B1065" s="50"/>
+      <c r="C1065" s="50"/>
+      <c r="D1065" s="50"/>
+      <c r="E1065" s="50"/>
+    </row>
+    <row r="1066" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="49"/>
+      <c r="B1066" s="50"/>
+      <c r="C1066" s="50"/>
+      <c r="D1066" s="50"/>
+      <c r="E1066" s="50"/>
+    </row>
+    <row r="1067" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="49"/>
+      <c r="B1067" s="50"/>
+      <c r="C1067" s="50"/>
+      <c r="D1067" s="50"/>
+      <c r="E1067" s="50"/>
+    </row>
+    <row r="1068" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="49"/>
+      <c r="B1068" s="50"/>
+      <c r="C1068" s="50"/>
+      <c r="D1068" s="50"/>
+      <c r="E1068" s="50"/>
+    </row>
+    <row r="1069" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="49"/>
+      <c r="B1069" s="50"/>
+      <c r="C1069" s="50"/>
+      <c r="D1069" s="50"/>
+      <c r="E1069" s="50"/>
+    </row>
+    <row r="1070" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="49"/>
+      <c r="B1070" s="50"/>
+      <c r="C1070" s="50"/>
+      <c r="D1070" s="50"/>
+      <c r="E1070" s="50"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2949AC-25FF-486A-A683-FE1E5F2150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C8225-ABA1-402D-B1EF-CCC124D11207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50850" yWindow="1365" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57795" yWindow="1500" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:E1070"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4172,21 +4172,21 @@
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="12" t="s">
+      <c r="D170" s="10"/>
+      <c r="E170" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\66828_2_18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\723134_3_45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3123B4A-BE6B-48D6-8104-997D8D8EA2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E7C85-E2A6-4196-BA71-A2E3C50B85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56220" yWindow="3630" windowWidth="16155" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="4140" windowWidth="17205" windowHeight="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>Ulcerative Colitis</t>
   </si>
   <si>
-    <t>Collonsella aerofaciens</t>
-  </si>
-  <si>
     <t>s__Collinsella_aerofaciens</t>
   </si>
   <si>
@@ -907,6 +904,9 @@
   </si>
   <si>
     <t>s__Klebsiella_pneumoniae</t>
+  </si>
+  <si>
+    <t>Collinsella aerofaciens</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1651,7 @@
   <dimension ref="A1:E1095"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1890,7 +1890,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>46</v>
@@ -2299,7 +2299,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>82</v>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="53" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="C53" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="5" t="s">
@@ -2764,10 +2764,10 @@
         <v>96</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="52" t="s">
         <v>259</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>260</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="53" t="s">
@@ -3019,10 +3019,10 @@
         <v>105</v>
       </c>
       <c r="B91" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="55" t="s">
         <v>261</v>
-      </c>
-      <c r="C91" s="55" t="s">
-        <v>262</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="56" t="s">
@@ -3031,13 +3031,13 @@
     </row>
     <row r="92" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="7" t="s">
@@ -3046,7 +3046,7 @@
     </row>
     <row r="93" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>54</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="94" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>54</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="95" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>41</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="96" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>34</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="97" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="12" t="s">
@@ -3121,13 +3121,13 @@
     </row>
     <row r="98" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="12" t="s">
@@ -3136,13 +3136,13 @@
     </row>
     <row r="99" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="5" t="s">
@@ -3336,10 +3336,10 @@
         <v>127</v>
       </c>
       <c r="B112" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>129</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="32" t="s">
@@ -3351,10 +3351,10 @@
         <v>127</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="32" t="s">
@@ -3366,10 +3366,10 @@
         <v>127</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="31"/>
       <c r="E114" s="32" t="s">
@@ -3381,10 +3381,10 @@
         <v>127</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D115" s="31"/>
       <c r="E115" s="32" t="s">
@@ -3396,10 +3396,10 @@
         <v>127</v>
       </c>
       <c r="B116" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="D116" s="31"/>
       <c r="E116" s="32" t="s">
@@ -3426,10 +3426,10 @@
         <v>127</v>
       </c>
       <c r="B118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="35" t="s">
         <v>135</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>136</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="36" t="s">
@@ -3438,7 +3438,7 @@
     </row>
     <row r="119" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>31</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="120" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>1</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="121" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>1</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="122" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>1</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="123" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>54</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="124" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>54</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="125" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="51" t="s">
         <v>71</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="126" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="51" t="s">
         <v>71</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="127" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127" s="51" t="s">
         <v>71</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="128" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="51" t="s">
         <v>71</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="129" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>39</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="130" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="12" t="s">
@@ -3620,13 +3620,13 @@
     </row>
     <row r="131" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C131" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="5" t="s">
@@ -3635,7 +3635,7 @@
     </row>
     <row r="132" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" s="58" t="s">
         <v>31</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="133" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="58" t="s">
         <v>118</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="134" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" s="58" t="s">
         <v>118</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="135" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="58" t="s">
         <v>118</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="136" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="58" t="s">
         <v>108</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="137" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="58" t="s">
         <v>108</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="138" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="60" t="s">
         <v>108</v>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="139" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="C139" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="C139" s="31" t="s">
-        <v>145</v>
       </c>
       <c r="D139" s="31"/>
       <c r="E139" s="32" t="s">
@@ -3757,13 +3757,13 @@
     </row>
     <row r="140" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C140" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="31"/>
       <c r="E140" s="32" t="s">
@@ -3772,13 +3772,13 @@
     </row>
     <row r="141" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C141" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="31"/>
       <c r="E141" s="32" t="s">
@@ -3787,13 +3787,13 @@
     </row>
     <row r="142" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C142" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D142" s="31"/>
       <c r="E142" s="32" t="s">
@@ -3802,13 +3802,13 @@
     </row>
     <row r="143" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C143" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D143" s="31"/>
       <c r="E143" s="32" t="s">
@@ -3817,13 +3817,13 @@
     </row>
     <row r="144" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C144" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" s="31"/>
       <c r="E144" s="32" t="s">
@@ -3832,13 +3832,13 @@
     </row>
     <row r="145" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C145" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" s="31"/>
       <c r="E145" s="32" t="s">
@@ -3847,13 +3847,13 @@
     </row>
     <row r="146" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C146" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" s="31"/>
       <c r="E146" s="32" t="s">
@@ -3862,13 +3862,13 @@
     </row>
     <row r="147" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="C147" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D147" s="31"/>
       <c r="E147" s="32" t="s">
@@ -3877,13 +3877,13 @@
     </row>
     <row r="148" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="31" t="s">
         <v>154</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>155</v>
       </c>
       <c r="D148" s="31"/>
       <c r="E148" s="32" t="s">
@@ -3892,13 +3892,13 @@
     </row>
     <row r="149" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B149" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>157</v>
       </c>
       <c r="D149" s="31"/>
       <c r="E149" s="32" t="s">
@@ -3907,13 +3907,13 @@
     </row>
     <row r="150" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B150" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="31" t="s">
         <v>158</v>
-      </c>
-      <c r="C150" s="31" t="s">
-        <v>159</v>
       </c>
       <c r="D150" s="31"/>
       <c r="E150" s="32" t="s">
@@ -3922,13 +3922,13 @@
     </row>
     <row r="151" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>161</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="36" t="s">
@@ -3937,13 +3937,13 @@
     </row>
     <row r="152" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" s="51" t="s">
         <v>263</v>
-      </c>
-      <c r="C152" s="51" t="s">
-        <v>264</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="57" t="s">
@@ -3952,7 +3952,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="51" t="s">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="154" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B154" s="51" t="s">
         <v>1</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="155" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="51" t="s">
         <v>1</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" s="51" t="s">
         <v>118</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="157" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157" s="51" t="s">
         <v>118</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="158" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" s="54" t="s">
         <v>118</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>57</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="160" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="12" t="s">
@@ -4072,13 +4072,13 @@
     </row>
     <row r="161" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="12" t="s">
@@ -4087,13 +4087,13 @@
     </row>
     <row r="162" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="5" t="s">
@@ -4102,13 +4102,13 @@
     </row>
     <row r="163" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="C163" s="50" t="s">
-        <v>136</v>
       </c>
       <c r="D163" s="40"/>
       <c r="E163" s="40" t="s">
@@ -4117,13 +4117,13 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="31" t="s">
+      <c r="C164" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="C164" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="D164" s="31"/>
       <c r="E164" s="32" t="s">
@@ -4132,7 +4132,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" s="58" t="s">
         <v>1</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="166" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" s="58" t="s">
         <v>1</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="167" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167" s="60" t="s">
         <v>1</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>46</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="169" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>71</v>
@@ -4201,7 +4201,7 @@
         <v>72</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>26</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="170" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>71</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="171" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>71</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="172" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>71</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="12" t="s">
@@ -4269,13 +4269,13 @@
     </row>
     <row r="174" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="12" t="s">
@@ -4284,16 +4284,16 @@
     </row>
     <row r="175" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>26</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="176" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>68</v>
@@ -4316,13 +4316,13 @@
     </row>
     <row r="177" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="12" t="s">
@@ -4331,10 +4331,10 @@
     </row>
     <row r="178" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>77</v>
@@ -4346,13 +4346,13 @@
     </row>
     <row r="179" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="12" t="s">
@@ -4361,13 +4361,13 @@
     </row>
     <row r="180" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="12" t="s">
@@ -4376,13 +4376,13 @@
     </row>
     <row r="181" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="12" t="s">
@@ -4391,13 +4391,13 @@
     </row>
     <row r="182" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="12" t="s">
@@ -4406,10 +4406,10 @@
     </row>
     <row r="183" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>82</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="184" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>39</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="185" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B185" s="37" t="s">
         <v>31</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="186" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B186" s="37" t="s">
         <v>1</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="187" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" s="37" t="s">
         <v>1</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="188" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>1</v>
@@ -4498,13 +4498,13 @@
     </row>
     <row r="189" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B189" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="C189" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="32" t="s">
@@ -4513,7 +4513,7 @@
     </row>
     <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B190" s="38" t="s">
         <v>126</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="191" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B191" s="44" t="s">
         <v>126</v>
@@ -4543,13 +4543,13 @@
     </row>
     <row r="192" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="12" t="s">
@@ -4558,10 +4558,10 @@
     </row>
     <row r="193" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>56</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="194" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>71</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="195" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>71</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="196" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>71</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="197" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>71</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>112</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="199" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>112</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="200" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>112</v>
@@ -4678,13 +4678,13 @@
     </row>
     <row r="201" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="12" t="s">
@@ -4693,13 +4693,13 @@
     </row>
     <row r="202" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="12" t="s">
@@ -4708,13 +4708,13 @@
     </row>
     <row r="203" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B203" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>125</v>
@@ -4725,13 +4725,13 @@
     </row>
     <row r="204" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="12" t="s">
@@ -4740,13 +4740,13 @@
     </row>
     <row r="205" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="12" t="s">
@@ -4755,13 +4755,13 @@
     </row>
     <row r="206" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="12" t="s">
@@ -4770,13 +4770,13 @@
     </row>
     <row r="207" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="12" t="s">
@@ -4785,13 +4785,13 @@
     </row>
     <row r="208" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="12" t="s">
@@ -4800,13 +4800,13 @@
     </row>
     <row r="209" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="12" t="s">
@@ -4815,13 +4815,13 @@
     </row>
     <row r="210" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="12" t="s">
@@ -4830,13 +4830,13 @@
     </row>
     <row r="211" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="12" t="s">
@@ -4845,13 +4845,13 @@
     </row>
     <row r="212" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="12" t="s">
@@ -4860,13 +4860,13 @@
     </row>
     <row r="213" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="12" t="s">
@@ -4875,13 +4875,13 @@
     </row>
     <row r="214" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="12" t="s">
@@ -4890,13 +4890,13 @@
     </row>
     <row r="215" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="12" t="s">
@@ -4905,13 +4905,13 @@
     </row>
     <row r="216" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="12" t="s">
@@ -4920,13 +4920,13 @@
     </row>
     <row r="217" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="12" t="s">
@@ -4935,13 +4935,13 @@
     </row>
     <row r="218" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="12" t="s">
@@ -4950,13 +4950,13 @@
     </row>
     <row r="219" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="12" t="s">
@@ -4965,13 +4965,13 @@
     </row>
     <row r="220" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="12" t="s">
@@ -4980,13 +4980,13 @@
     </row>
     <row r="221" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="12" t="s">
@@ -4995,13 +4995,13 @@
     </row>
     <row r="222" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="12" t="s">
@@ -5010,13 +5010,13 @@
     </row>
     <row r="223" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="12" t="s">
@@ -5025,13 +5025,13 @@
     </row>
     <row r="224" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="5" t="s">
@@ -5040,13 +5040,13 @@
     </row>
     <row r="225" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B225" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C225" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="C225" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="57" t="s">
@@ -5055,13 +5055,13 @@
     </row>
     <row r="226" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B226" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C226" s="64" t="s">
         <v>267</v>
-      </c>
-      <c r="C226" s="64" t="s">
-        <v>268</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="57" t="s">
@@ -5070,7 +5070,7 @@
     </row>
     <row r="227" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B227" s="51" t="s">
         <v>54</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="228" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B228" s="51" t="s">
         <v>54</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="229" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B229" s="51" t="s">
         <v>71</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="230" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B230" s="51" t="s">
         <v>71</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="231" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B231" s="51" t="s">
         <v>71</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="232" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B232" s="54" t="s">
         <v>71</v>
@@ -5160,13 +5160,13 @@
     </row>
     <row r="233" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B233" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C233" s="51" t="s">
         <v>163</v>
-      </c>
-      <c r="C233" s="51" t="s">
-        <v>164</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="57" t="s">
@@ -5175,7 +5175,7 @@
     </row>
     <row r="234" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B234" s="51" t="s">
         <v>80</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="235" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B235" s="51" t="s">
         <v>34</v>
@@ -5205,13 +5205,13 @@
     </row>
     <row r="236" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B236" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C236" s="51" t="s">
         <v>261</v>
-      </c>
-      <c r="C236" s="51" t="s">
-        <v>262</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="57" t="s">
@@ -5220,7 +5220,7 @@
     </row>
     <row r="237" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B237" s="54" t="s">
         <v>86</v>
@@ -5235,13 +5235,13 @@
     </row>
     <row r="238" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B238" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" s="51" t="s">
         <v>269</v>
-      </c>
-      <c r="C238" s="51" t="s">
-        <v>270</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="57" t="s">
@@ -5250,13 +5250,13 @@
     </row>
     <row r="239" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B239" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C239" s="54" t="s">
         <v>271</v>
-      </c>
-      <c r="C239" s="54" t="s">
-        <v>272</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="62" t="s">
@@ -5265,7 +5265,7 @@
     </row>
     <row r="240" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B240" s="17" t="s">
         <v>71</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="241" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>71</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="242" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B242" s="17" t="s">
         <v>71</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="243" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B243" s="24" t="s">
         <v>71</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>78</v>
@@ -5340,13 +5340,13 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B245" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B245" s="31" t="s">
+      <c r="C245" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="C245" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="D245" s="31"/>
       <c r="E245" s="32" t="s">
@@ -5355,13 +5355,13 @@
     </row>
     <row r="246" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B246" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B246" s="31" t="s">
-        <v>194</v>
-      </c>
       <c r="C246" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D246" s="31"/>
       <c r="E246" s="32" t="s">
@@ -5370,13 +5370,13 @@
     </row>
     <row r="247" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B247" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B247" s="31" t="s">
-        <v>194</v>
-      </c>
       <c r="C247" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D247" s="31"/>
       <c r="E247" s="32" t="s">
@@ -5385,7 +5385,7 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>41</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>126</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B250" s="31" t="s">
         <v>60</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="251" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B251" s="31" t="s">
         <v>60</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="252" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B252" s="35" t="s">
         <v>60</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B253" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B253" s="35" t="s">
+      <c r="C253" s="35" t="s">
         <v>220</v>
-      </c>
-      <c r="C253" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="36" t="s">
@@ -5475,7 +5475,7 @@
     </row>
     <row r="254" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B254" s="31" t="s">
         <v>54</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="255" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B255" s="31" t="s">
         <v>54</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="256" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B256" s="35" t="s">
         <v>0</v>
@@ -5520,13 +5520,13 @@
     </row>
     <row r="257" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B257" s="31" t="s">
+      <c r="C257" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="C257" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="D257" s="31"/>
       <c r="E257" s="32" t="s">
@@ -5535,7 +5535,7 @@
     </row>
     <row r="258" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B258" s="31" t="s">
         <v>118</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="259" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B259" s="31" t="s">
         <v>118</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="260" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B260" s="31" t="s">
         <v>118</v>
@@ -5580,13 +5580,13 @@
     </row>
     <row r="261" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B261" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C261" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C261" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="D261" s="31"/>
       <c r="E261" s="32" t="s">
@@ -5595,13 +5595,13 @@
     </row>
     <row r="262" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="32" t="s">
@@ -5610,13 +5610,13 @@
     </row>
     <row r="263" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B263" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C263" s="35" t="s">
         <v>204</v>
-      </c>
-      <c r="C263" s="35" t="s">
-        <v>205</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="36" t="s">
@@ -5625,13 +5625,13 @@
     </row>
     <row r="264" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B264" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B264" s="17" t="s">
+      <c r="C264" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D264" s="17"/>
       <c r="E264" s="21" t="s">
@@ -5640,13 +5640,13 @@
     </row>
     <row r="265" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B265" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C265" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D265" s="17"/>
       <c r="E265" s="21" t="s">
@@ -5655,13 +5655,13 @@
     </row>
     <row r="266" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B266" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C266" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="C266" s="17" t="s">
-        <v>230</v>
       </c>
       <c r="D266" s="17"/>
       <c r="E266" s="21" t="s">
@@ -5670,13 +5670,13 @@
     </row>
     <row r="267" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D267" s="17"/>
       <c r="E267" s="21" t="s">
@@ -5685,13 +5685,13 @@
     </row>
     <row r="268" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B268" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="C268" s="52" t="s">
-        <v>274</v>
       </c>
       <c r="D268" s="17"/>
       <c r="E268" s="53" t="s">
@@ -5700,13 +5700,13 @@
     </row>
     <row r="269" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B269" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C269" s="52" t="s">
         <v>275</v>
-      </c>
-      <c r="C269" s="52" t="s">
-        <v>276</v>
       </c>
       <c r="D269" s="17"/>
       <c r="E269" s="53" t="s">
@@ -5715,13 +5715,13 @@
     </row>
     <row r="270" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B270" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C270" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="C270" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="D270" s="17"/>
       <c r="E270" s="21" t="s">
@@ -5730,7 +5730,7 @@
     </row>
     <row r="271" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B271" s="24" t="s">
         <v>78</v>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\723134_3_45\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525578_6_45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E7C85-E2A6-4196-BA71-A2E3C50B85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF53676-191C-498E-9832-C6582C0811EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="4140" windowWidth="17205" windowHeight="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53640" yWindow="525" windowWidth="13275" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="275">
   <si>
     <t>Lactobacillus</t>
   </si>
@@ -603,12 +603,6 @@
   </si>
   <si>
     <t>Bifidobacterium adolescentis</t>
-  </si>
-  <si>
-    <t>Faecalibacterium prausnitzii</t>
-  </si>
-  <si>
-    <t>s__Faecalibacterium prausnitzii</t>
   </si>
   <si>
     <t>Glaucoma</t>
@@ -1648,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
-  <dimension ref="A1:E1095"/>
+  <dimension ref="A1:E1093"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2299,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>82</v>
@@ -2446,13 +2440,13 @@
     </row>
     <row r="53" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="5" t="s">
@@ -2764,10 +2758,10 @@
         <v>96</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="53" t="s">
@@ -3019,10 +3013,10 @@
         <v>105</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="56" t="s">
@@ -3031,13 +3025,13 @@
     </row>
     <row r="92" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="7" t="s">
@@ -3046,7 +3040,7 @@
     </row>
     <row r="93" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>54</v>
@@ -3061,7 +3055,7 @@
     </row>
     <row r="94" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>54</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="95" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>41</v>
@@ -3091,7 +3085,7 @@
     </row>
     <row r="96" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>34</v>
@@ -3106,7 +3100,7 @@
     </row>
     <row r="97" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>116</v>
@@ -3121,13 +3115,13 @@
     </row>
     <row r="98" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="12" t="s">
@@ -3136,13 +3130,13 @@
     </row>
     <row r="99" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="5" t="s">
@@ -3336,7 +3330,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>128</v>
@@ -3351,7 +3345,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>129</v>
@@ -3366,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>130</v>
@@ -3381,7 +3375,7 @@
         <v>127</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>131</v>
@@ -3940,10 +3934,10 @@
         <v>161</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C152" s="51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="57" t="s">
@@ -4394,7 +4388,7 @@
         <v>172</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>184</v>
@@ -4409,7 +4403,7 @@
         <v>172</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>82</v>
@@ -4436,7 +4430,7 @@
     </row>
     <row r="185" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B185" s="37" t="s">
         <v>31</v>
@@ -4453,7 +4447,7 @@
     </row>
     <row r="186" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B186" s="37" t="s">
         <v>1</v>
@@ -4468,7 +4462,7 @@
     </row>
     <row r="187" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B187" s="37" t="s">
         <v>1</v>
@@ -4483,7 +4477,7 @@
     </row>
     <row r="188" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>1</v>
@@ -4498,7 +4492,7 @@
     </row>
     <row r="189" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B189" s="37" t="s">
         <v>132</v>
@@ -4513,7 +4507,7 @@
     </row>
     <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B190" s="38" t="s">
         <v>126</v>
@@ -4541,37 +4535,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B193" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="5" t="s">
+      <c r="B193" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>186</v>
       </c>
@@ -4579,7 +4573,7 @@
         <v>71</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="12" t="s">
@@ -4594,44 +4588,44 @@
         <v>71</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>186</v>
       </c>
@@ -4639,22 +4633,22 @@
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="12" t="s">
@@ -4666,10 +4660,10 @@
         <v>186</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="12" t="s">
@@ -4681,14 +4675,16 @@
         <v>186</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D201" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E201" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
@@ -4696,29 +4692,27 @@
         <v>186</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="12" t="s">
         <v>26</v>
       </c>
@@ -4728,7 +4722,7 @@
         <v>186</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>237</v>
@@ -4738,12 +4732,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>238</v>
@@ -4753,12 +4747,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>239</v>
@@ -4773,7 +4767,7 @@
         <v>186</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>240</v>
@@ -4783,12 +4777,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>241</v>
@@ -4803,7 +4797,7 @@
         <v>186</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>242</v>
@@ -4818,7 +4812,7 @@
         <v>186</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>243</v>
@@ -4833,7 +4827,7 @@
         <v>186</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>244</v>
@@ -4848,7 +4842,7 @@
         <v>186</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>245</v>
@@ -4858,12 +4852,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>246</v>
@@ -4878,7 +4872,7 @@
         <v>186</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>247</v>
@@ -4893,7 +4887,7 @@
         <v>186</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>248</v>
@@ -4903,12 +4897,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>249</v>
@@ -4918,12 +4912,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>250</v>
@@ -4933,12 +4927,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>251</v>
@@ -4953,7 +4947,7 @@
         <v>186</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>252</v>
@@ -4968,7 +4962,7 @@
         <v>186</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>253</v>
@@ -4978,12 +4972,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>254</v>
@@ -4993,60 +4987,60 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
+    <row r="222" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C222" s="4" t="s">
+      <c r="B222" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D222" s="4"/>
-      <c r="E222" s="12" t="s">
+      <c r="D222" s="10"/>
+      <c r="E222" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>256</v>
+      <c r="A223" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C223" s="51" t="s">
+        <v>263</v>
       </c>
       <c r="D223" s="4"/>
-      <c r="E223" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D224" s="10"/>
-      <c r="E224" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="63" t="s">
         <v>187</v>
       </c>
       <c r="B225" s="51" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="C225" s="51" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="57" t="s">
@@ -5057,11 +5051,11 @@
       <c r="A226" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B226" s="64" t="s">
-        <v>266</v>
+      <c r="B226" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="57" t="s">
@@ -5073,32 +5067,32 @@
         <v>187</v>
       </c>
       <c r="B227" s="51" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C227" s="51" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="63" t="s">
         <v>187</v>
       </c>
       <c r="B228" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C228" s="64" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="C228" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="63" t="s">
         <v>187</v>
       </c>
@@ -5106,7 +5100,7 @@
         <v>71</v>
       </c>
       <c r="C229" s="51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="57" t="s">
@@ -5117,44 +5111,44 @@
       <c r="A230" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C230" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D230" s="4"/>
-      <c r="E230" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D230" s="10"/>
+      <c r="E230" s="62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="63" t="s">
         <v>187</v>
       </c>
       <c r="B231" s="51" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B232" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C232" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D232" s="10"/>
-      <c r="E232" s="62" t="s">
+      <c r="B232" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C232" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5163,14 +5157,14 @@
         <v>187</v>
       </c>
       <c r="B233" s="51" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="C233" s="51" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5178,28 +5172,28 @@
         <v>187</v>
       </c>
       <c r="B234" s="51" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="C234" s="51" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B235" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C235" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D235" s="4"/>
-      <c r="E235" s="57" t="s">
+      <c r="B235" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C235" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D235" s="10"/>
+      <c r="E235" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5208,70 +5202,70 @@
         <v>187</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C236" s="51" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="63" t="s">
+      <c r="A237" s="65" t="s">
         <v>187</v>
       </c>
       <c r="B237" s="54" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="C237" s="54" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="B238" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="C238" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="D238" s="4"/>
-      <c r="E238" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="B239" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="C239" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="D239" s="10"/>
-      <c r="E239" s="62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D238" s="17"/>
+      <c r="E238" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D239" s="17"/>
+      <c r="E239" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B240" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D240" s="17"/>
       <c r="E240" s="21" t="s">
@@ -5279,71 +5273,71 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D241" s="24"/>
+      <c r="E241" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C242" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D242" s="31"/>
+      <c r="E242" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B243" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B241" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D241" s="17"/>
-      <c r="E241" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="C243" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D243" s="31"/>
+      <c r="E243" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B244" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B242" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D242" s="17"/>
-      <c r="E242" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B243" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C243" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D243" s="24"/>
-      <c r="E243" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B244" s="31" t="s">
-        <v>78</v>
-      </c>
       <c r="C244" s="31" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="D244" s="31"/>
       <c r="E244" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C245" s="31" t="s">
         <v>194</v>
@@ -5353,300 +5347,300 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="D246" s="31"/>
       <c r="E246" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D247" s="31"/>
       <c r="E247" s="32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D248" s="31"/>
       <c r="E248" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D249" s="31"/>
       <c r="E249" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B250" s="31" t="s">
+    <row r="250" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B250" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C250" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D250" s="31"/>
-      <c r="E250" s="32" t="s">
+      <c r="C250" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" s="35"/>
+      <c r="E250" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B251" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C251" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D251" s="31"/>
-      <c r="E251" s="32" t="s">
+    <row r="251" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="35"/>
+      <c r="E251" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B252" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C252" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D252" s="35"/>
-      <c r="E252" s="36" t="s">
+      <c r="A252" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252" s="31"/>
+      <c r="E252" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D253" s="31"/>
+      <c r="E253" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B254" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="35"/>
+      <c r="E254" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B253" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C253" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D253" s="35"/>
-      <c r="E253" s="36" t="s">
+    <row r="255" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C255" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D255" s="31"/>
+      <c r="E255" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D256" s="31"/>
+      <c r="E256" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B254" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C254" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D254" s="31"/>
-      <c r="E254" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B255" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C255" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D255" s="31"/>
-      <c r="E255" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B256" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C256" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="35"/>
-      <c r="E256" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D257" s="31"/>
       <c r="E257" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B258" s="31" t="s">
         <v>118</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D258" s="31"/>
       <c r="E258" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D259" s="31"/>
       <c r="E259" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D260" s="31"/>
       <c r="E260" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B261" s="31" t="s">
+    <row r="261" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B261" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C261" s="31" t="s">
+      <c r="C261" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D261" s="31"/>
-      <c r="E261" s="32" t="s">
+      <c r="D261" s="35"/>
+      <c r="E261" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B262" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C262" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D262" s="31"/>
-      <c r="E262" s="32" t="s">
+    <row r="262" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D262" s="17"/>
+      <c r="E262" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B263" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C263" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D263" s="35"/>
-      <c r="E263" s="36" t="s">
+      <c r="A263" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B263" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D263" s="17"/>
+      <c r="E263" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D264" s="17"/>
       <c r="E264" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D265" s="17"/>
       <c r="E265" s="21" t="s">
@@ -5655,93 +5649,77 @@
     </row>
     <row r="266" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B266" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B266" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C266" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D266" s="17"/>
+      <c r="E266" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B267" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C267" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267" s="17"/>
+      <c r="E267" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B268" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C268" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B267" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D267" s="17"/>
-      <c r="E267" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B268" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C268" s="52" t="s">
-        <v>273</v>
-      </c>
       <c r="D268" s="17"/>
-      <c r="E268" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B269" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="C269" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="D269" s="17"/>
-      <c r="E269" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B270" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C270" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D270" s="17"/>
-      <c r="E270" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B271" s="24" t="s">
+      <c r="E268" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B269" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C271" s="24" t="s">
+      <c r="C269" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D271" s="24"/>
-      <c r="E271" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="D269" s="24"/>
+      <c r="E269" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="46"/>
+      <c r="B270" s="47"/>
+      <c r="C270" s="47"/>
+      <c r="D270" s="47"/>
+      <c r="E270" s="47"/>
+    </row>
+    <row r="271" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="46"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="47"/>
+      <c r="D271" s="47"/>
+      <c r="E271" s="47"/>
     </row>
     <row r="272" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="46"/>
@@ -11497,20 +11475,6 @@
       <c r="D1093" s="47"/>
       <c r="E1093" s="47"/>
     </row>
-    <row r="1094" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1094" s="46"/>
-      <c r="B1094" s="47"/>
-      <c r="C1094" s="47"/>
-      <c r="D1094" s="47"/>
-      <c r="E1094" s="47"/>
-    </row>
-    <row r="1095" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1095" s="46"/>
-      <c r="B1095" s="47"/>
-      <c r="C1095" s="47"/>
-      <c r="D1095" s="47"/>
-      <c r="E1095" s="47"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525578_6_45\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525578_11_73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF53676-191C-498E-9832-C6582C0811EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61844A-5FEC-422E-80B6-602B6B3556DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="525" windowWidth="13275" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45855" yWindow="1995" windowWidth="13275" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -638,9 +638,6 @@
     <t>Prevotella copri</t>
   </si>
   <si>
-    <t>g__Prevotella_copri</t>
-  </si>
-  <si>
     <t>Olsenella provencensis</t>
   </si>
   <si>
@@ -901,6 +898,10 @@
   </si>
   <si>
     <t>Collinsella aerofaciens</t>
+  </si>
+  <si>
+    <t>s__Prevotella_copri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1644,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2293,7 +2294,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>82</v>
@@ -2440,13 +2441,13 @@
     </row>
     <row r="53" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="C53" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="5" t="s">
@@ -2758,10 +2759,10 @@
         <v>96</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="52" t="s">
         <v>256</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>257</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="53" t="s">
@@ -3013,10 +3014,10 @@
         <v>105</v>
       </c>
       <c r="B91" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="55" t="s">
         <v>258</v>
-      </c>
-      <c r="C91" s="55" t="s">
-        <v>259</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="56" t="s">
@@ -3025,13 +3026,13 @@
     </row>
     <row r="92" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="7" t="s">
@@ -3040,7 +3041,7 @@
     </row>
     <row r="93" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>54</v>
@@ -3055,7 +3056,7 @@
     </row>
     <row r="94" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>54</v>
@@ -3070,7 +3071,7 @@
     </row>
     <row r="95" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>41</v>
@@ -3085,7 +3086,7 @@
     </row>
     <row r="96" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>34</v>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="97" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>116</v>
@@ -3115,13 +3116,13 @@
     </row>
     <row r="98" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="12" t="s">
@@ -3130,13 +3131,13 @@
     </row>
     <row r="99" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="5" t="s">
@@ -3330,7 +3331,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>128</v>
@@ -3345,7 +3346,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>129</v>
@@ -3360,7 +3361,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>130</v>
@@ -3375,7 +3376,7 @@
         <v>127</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>131</v>
@@ -3934,10 +3935,10 @@
         <v>161</v>
       </c>
       <c r="B152" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C152" s="51" t="s">
         <v>260</v>
-      </c>
-      <c r="C152" s="51" t="s">
-        <v>261</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="57" t="s">
@@ -4388,7 +4389,7 @@
         <v>172</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>184</v>
@@ -4403,7 +4404,7 @@
         <v>172</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>82</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="185" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185" s="37" t="s">
         <v>31</v>
@@ -4447,7 +4448,7 @@
     </row>
     <row r="186" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B186" s="37" t="s">
         <v>1</v>
@@ -4462,7 +4463,7 @@
     </row>
     <row r="187" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B187" s="37" t="s">
         <v>1</v>
@@ -4477,7 +4478,7 @@
     </row>
     <row r="188" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>1</v>
@@ -4492,7 +4493,7 @@
     </row>
     <row r="189" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B189" s="37" t="s">
         <v>132</v>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B190" s="38" t="s">
         <v>126</v>
@@ -4645,10 +4646,10 @@
         <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="12" t="s">
@@ -4660,10 +4661,10 @@
         <v>186</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="12" t="s">
@@ -4675,10 +4676,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>125</v>
@@ -4692,10 +4693,10 @@
         <v>186</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="12" t="s">
@@ -4707,10 +4708,10 @@
         <v>186</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="12" t="s">
@@ -4722,10 +4723,10 @@
         <v>186</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="12" t="s">
@@ -4737,10 +4738,10 @@
         <v>186</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="12" t="s">
@@ -4752,10 +4753,10 @@
         <v>186</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="12" t="s">
@@ -4767,10 +4768,10 @@
         <v>186</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="12" t="s">
@@ -4782,10 +4783,10 @@
         <v>186</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="12" t="s">
@@ -4797,10 +4798,10 @@
         <v>186</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="12" t="s">
@@ -4812,10 +4813,10 @@
         <v>186</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="12" t="s">
@@ -4827,10 +4828,10 @@
         <v>186</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="12" t="s">
@@ -4842,10 +4843,10 @@
         <v>186</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="12" t="s">
@@ -4857,10 +4858,10 @@
         <v>186</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="12" t="s">
@@ -4872,10 +4873,10 @@
         <v>186</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="12" t="s">
@@ -4887,10 +4888,10 @@
         <v>186</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="12" t="s">
@@ -4902,10 +4903,10 @@
         <v>186</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="12" t="s">
@@ -4917,10 +4918,10 @@
         <v>186</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="12" t="s">
@@ -4932,10 +4933,10 @@
         <v>186</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="12" t="s">
@@ -4947,10 +4948,10 @@
         <v>186</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="12" t="s">
@@ -4962,10 +4963,10 @@
         <v>186</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="12" t="s">
@@ -4977,10 +4978,10 @@
         <v>186</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="12" t="s">
@@ -4992,10 +4993,10 @@
         <v>186</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="5" t="s">
@@ -5007,10 +5008,10 @@
         <v>187</v>
       </c>
       <c r="B223" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C223" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="C223" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="57" t="s">
@@ -5022,10 +5023,10 @@
         <v>187</v>
       </c>
       <c r="B224" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C224" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="C224" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="57" t="s">
@@ -5172,10 +5173,10 @@
         <v>187</v>
       </c>
       <c r="B234" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C234" s="51" t="s">
         <v>258</v>
-      </c>
-      <c r="C234" s="51" t="s">
-        <v>259</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="57" t="s">
@@ -5202,10 +5203,10 @@
         <v>187</v>
       </c>
       <c r="B236" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C236" s="51" t="s">
         <v>266</v>
-      </c>
-      <c r="C236" s="51" t="s">
-        <v>267</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="57" t="s">
@@ -5217,10 +5218,10 @@
         <v>187</v>
       </c>
       <c r="B237" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C237" s="54" t="s">
         <v>268</v>
-      </c>
-      <c r="C237" s="54" t="s">
-        <v>269</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="62" t="s">
@@ -5424,13 +5425,13 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B251" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B251" s="35" t="s">
+      <c r="C251" s="35" t="s">
         <v>217</v>
-      </c>
-      <c r="C251" s="35" t="s">
-        <v>218</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="36" t="s">
@@ -5550,7 +5551,7 @@
         <v>199</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="D259" s="31"/>
       <c r="E259" s="32" t="s">
@@ -5577,10 +5578,10 @@
         <v>196</v>
       </c>
       <c r="B261" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C261" s="35" t="s">
         <v>201</v>
-      </c>
-      <c r="C261" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="36" t="s">
@@ -5589,13 +5590,13 @@
     </row>
     <row r="262" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B262" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B262" s="17" t="s">
+      <c r="C262" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C262" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D262" s="17"/>
       <c r="E262" s="21" t="s">
@@ -5604,13 +5605,13 @@
     </row>
     <row r="263" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B263" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C263" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C263" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="D263" s="17"/>
       <c r="E263" s="21" t="s">
@@ -5619,13 +5620,13 @@
     </row>
     <row r="264" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B264" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C264" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D264" s="17"/>
       <c r="E264" s="21" t="s">
@@ -5634,10 +5635,10 @@
     </row>
     <row r="265" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C265" s="17" t="s">
         <v>184</v>
@@ -5649,13 +5650,13 @@
     </row>
     <row r="266" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B266" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" s="52" t="s">
         <v>270</v>
-      </c>
-      <c r="C266" s="52" t="s">
-        <v>271</v>
       </c>
       <c r="D266" s="17"/>
       <c r="E266" s="53" t="s">
@@ -5664,13 +5665,13 @@
     </row>
     <row r="267" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B267" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="C267" s="52" t="s">
         <v>272</v>
-      </c>
-      <c r="C267" s="52" t="s">
-        <v>273</v>
       </c>
       <c r="D267" s="17"/>
       <c r="E267" s="53" t="s">
@@ -5679,13 +5680,13 @@
     </row>
     <row r="268" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B268" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C268" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C268" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="D268" s="17"/>
       <c r="E268" s="21" t="s">
@@ -5694,7 +5695,7 @@
     </row>
     <row r="269" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B269" s="24" t="s">
         <v>78</v>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525578_11_73\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\132688_2_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61844A-5FEC-422E-80B6-602B6B3556DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D146F-D82E-40ED-908E-3D172D89AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45855" yWindow="1995" windowWidth="13275" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59370" yWindow="420" windowWidth="11175" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -668,12 +668,6 @@
     <t>s__Desulfovibrio_desulfuricans</t>
   </si>
   <si>
-    <t>Desulfovibrio vulgari</t>
-  </si>
-  <si>
-    <t>s__Desulfovibrio vulgari</t>
-  </si>
-  <si>
     <r>
       <t>Bifidobacterium ado</t>
     </r>
@@ -900,8 +894,13 @@
     <t>Collinsella aerofaciens</t>
   </si>
   <si>
+    <t>Desulfovibrio vulgaris</t>
+  </si>
+  <si>
+    <t>s__Desulfovibrio_vulgaris</t>
+  </si>
+  <si>
     <t>s__Prevotella_copri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1645,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G250" sqref="G250"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2294,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>82</v>
@@ -2759,10 +2758,10 @@
         <v>96</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="53" t="s">
@@ -3014,10 +3013,10 @@
         <v>105</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="56" t="s">
@@ -3134,10 +3133,10 @@
         <v>205</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="5" t="s">
@@ -3331,7 +3330,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>128</v>
@@ -3346,7 +3345,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>129</v>
@@ -3361,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>130</v>
@@ -3376,7 +3375,7 @@
         <v>127</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>131</v>
@@ -3935,10 +3934,10 @@
         <v>161</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C152" s="51" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="57" t="s">
@@ -4389,7 +4388,7 @@
         <v>172</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>184</v>
@@ -4404,7 +4403,7 @@
         <v>172</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>82</v>
@@ -4431,7 +4430,7 @@
     </row>
     <row r="185" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B185" s="37" t="s">
         <v>31</v>
@@ -4448,7 +4447,7 @@
     </row>
     <row r="186" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B186" s="37" t="s">
         <v>1</v>
@@ -4463,7 +4462,7 @@
     </row>
     <row r="187" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B187" s="37" t="s">
         <v>1</v>
@@ -4478,7 +4477,7 @@
     </row>
     <row r="188" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>1</v>
@@ -4493,7 +4492,7 @@
     </row>
     <row r="189" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B189" s="37" t="s">
         <v>132</v>
@@ -4508,7 +4507,7 @@
     </row>
     <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B190" s="38" t="s">
         <v>126</v>
@@ -4646,10 +4645,10 @@
         <v>186</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="12" t="s">
@@ -4664,7 +4663,7 @@
         <v>206</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="12" t="s">
@@ -4676,10 +4675,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>125</v>
@@ -4693,10 +4692,10 @@
         <v>186</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="12" t="s">
@@ -4708,10 +4707,10 @@
         <v>186</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="12" t="s">
@@ -4723,10 +4722,10 @@
         <v>186</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="12" t="s">
@@ -4738,10 +4737,10 @@
         <v>186</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="12" t="s">
@@ -4753,10 +4752,10 @@
         <v>186</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="12" t="s">
@@ -4768,10 +4767,10 @@
         <v>186</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="12" t="s">
@@ -4783,10 +4782,10 @@
         <v>186</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="12" t="s">
@@ -4798,10 +4797,10 @@
         <v>186</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="12" t="s">
@@ -4813,10 +4812,10 @@
         <v>186</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="12" t="s">
@@ -4828,10 +4827,10 @@
         <v>186</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="12" t="s">
@@ -4843,10 +4842,10 @@
         <v>186</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="12" t="s">
@@ -4858,10 +4857,10 @@
         <v>186</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="12" t="s">
@@ -4873,10 +4872,10 @@
         <v>186</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="12" t="s">
@@ -4888,10 +4887,10 @@
         <v>186</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="12" t="s">
@@ -4903,10 +4902,10 @@
         <v>186</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="12" t="s">
@@ -4918,10 +4917,10 @@
         <v>186</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="12" t="s">
@@ -4933,10 +4932,10 @@
         <v>186</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="12" t="s">
@@ -4948,10 +4947,10 @@
         <v>186</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="12" t="s">
@@ -4963,10 +4962,10 @@
         <v>186</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="12" t="s">
@@ -4978,10 +4977,10 @@
         <v>186</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="12" t="s">
@@ -4993,10 +4992,10 @@
         <v>186</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="5" t="s">
@@ -5008,10 +5007,10 @@
         <v>187</v>
       </c>
       <c r="B223" s="51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C223" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="57" t="s">
@@ -5023,10 +5022,10 @@
         <v>187</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="57" t="s">
@@ -5173,10 +5172,10 @@
         <v>187</v>
       </c>
       <c r="B234" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C234" s="51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="57" t="s">
@@ -5203,10 +5202,10 @@
         <v>187</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C236" s="51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="57" t="s">
@@ -5218,10 +5217,10 @@
         <v>187</v>
       </c>
       <c r="B237" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C237" s="54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="62" t="s">
@@ -5425,13 +5424,13 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B251" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C251" s="35" t="s">
         <v>215</v>
-      </c>
-      <c r="B251" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C251" s="35" t="s">
-        <v>217</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="36" t="s">
@@ -5590,13 +5589,13 @@
     </row>
     <row r="262" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C262" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="B262" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C262" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D262" s="17"/>
       <c r="E262" s="21" t="s">
@@ -5605,13 +5604,13 @@
     </row>
     <row r="263" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D263" s="17"/>
       <c r="E263" s="21" t="s">
@@ -5620,13 +5619,13 @@
     </row>
     <row r="264" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D264" s="17"/>
       <c r="E264" s="21" t="s">
@@ -5635,10 +5634,10 @@
     </row>
     <row r="265" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C265" s="17" t="s">
         <v>184</v>
@@ -5650,13 +5649,13 @@
     </row>
     <row r="266" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B266" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C266" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D266" s="17"/>
       <c r="E266" s="53" t="s">
@@ -5665,13 +5664,13 @@
     </row>
     <row r="267" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B267" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C267" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D267" s="17"/>
       <c r="E267" s="53" t="s">
@@ -5680,13 +5679,13 @@
     </row>
     <row r="268" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D268" s="17"/>
       <c r="E268" s="21" t="s">
@@ -5695,7 +5694,7 @@
     </row>
     <row r="269" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B269" s="24" t="s">
         <v>78</v>

--- a/input/phenotype_microbiome_cat.xlsx
+++ b/input/phenotype_microbiome_cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\132688_2_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525916_2_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D146F-D82E-40ED-908E-3D172D89AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDE961-0655-48A5-9200-B32A66A88A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59370" yWindow="420" windowWidth="11175" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51135" yWindow="2610" windowWidth="22425" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -855,9 +855,6 @@
     <t>s__Oxalobacter_formigenes</t>
   </si>
   <si>
-    <t>Oscillobacter valericigenes</t>
-  </si>
-  <si>
     <t>s__Oscillibacter_valericigenes</t>
   </si>
   <si>
@@ -901,6 +898,10 @@
   </si>
   <si>
     <t>s__Prevotella_copri</t>
+  </si>
+  <si>
+    <t>Oscillibacter valericigenes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1644,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1093"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3133,10 +3134,10 @@
         <v>205</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="5" t="s">
@@ -3330,7 +3331,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>128</v>
@@ -3345,7 +3346,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>129</v>
@@ -5007,10 +5008,10 @@
         <v>187</v>
       </c>
       <c r="B223" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C223" s="51" t="s">
         <v>259</v>
-      </c>
-      <c r="C223" s="51" t="s">
-        <v>260</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="57" t="s">
@@ -5022,10 +5023,10 @@
         <v>187</v>
       </c>
       <c r="B224" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C224" s="64" t="s">
         <v>261</v>
-      </c>
-      <c r="C224" s="64" t="s">
-        <v>262</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="57" t="s">
@@ -5202,10 +5203,10 @@
         <v>187</v>
       </c>
       <c r="B236" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C236" s="51" t="s">
         <v>263</v>
-      </c>
-      <c r="C236" s="51" t="s">
-        <v>264</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="57" t="s">
@@ -5217,10 +5218,10 @@
         <v>187</v>
       </c>
       <c r="B237" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C237" s="54" t="s">
         <v>265</v>
-      </c>
-      <c r="C237" s="54" t="s">
-        <v>266</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="62" t="s">
@@ -5550,7 +5551,7 @@
         <v>199</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D259" s="31"/>
       <c r="E259" s="32" t="s">
@@ -5652,10 +5653,10 @@
         <v>218</v>
       </c>
       <c r="B266" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C266" s="52" t="s">
         <v>267</v>
-      </c>
-      <c r="C266" s="52" t="s">
-        <v>268</v>
       </c>
       <c r="D266" s="17"/>
       <c r="E266" s="53" t="s">
@@ -5667,10 +5668,10 @@
         <v>218</v>
       </c>
       <c r="B267" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" s="52" t="s">
         <v>269</v>
-      </c>
-      <c r="C267" s="52" t="s">
-        <v>270</v>
       </c>
       <c r="D267" s="17"/>
       <c r="E267" s="53" t="s">
